--- a/resources/CellScores/cellscores.xlsx
+++ b/resources/CellScores/cellscores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cailab\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cailab\GitHub\scGEAToolbox\resources\CellScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD39AC-9435-4BF8-A911-63545DA1CBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F5CE8-7708-459A-81E9-74E8649E8531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54165" yWindow="2970" windowWidth="21630" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="221">
   <si>
     <t>ScoreType</t>
   </si>
@@ -585,36 +585,21 @@
     <t>Tan et al (2022) Stromal cell</t>
   </si>
   <si>
-    <t>WP_AUTOPHAGY</t>
-  </si>
-  <si>
     <t>AKT1S1,AMBRA1,ATG101,ATG12,ATG13,ATG14,ATG16L1,ATG3,ATG5,ATG7,ATG9A,BECN1,DEPTOR,MAP1LC3B,MLST8,MTOR,PIK3C3,PIK3R4,PRKAA1,PRKAA2,PRKAB1,PRKAB2,PRKAG1,PRKAG2,PRKAG3,RB1CC1,RPTOR,ULK1,UVRAG,WIPI2</t>
   </si>
   <si>
     <t>gsea-msigdb</t>
   </si>
   <si>
-    <t>SA_PROGRAMMED_CELL_DEATH</t>
-  </si>
-  <si>
     <t>APAF1,BAD,BAK1,BAX,BCL10,BCL2,BCL2L1,BCL2L11,BID,CASP8AP2,CASP9,CES1</t>
   </si>
   <si>
-    <t>REACTOME_MITOCHONDRIAL_BIOGENESIS</t>
-  </si>
-  <si>
     <t>ACSS2,ALAS1,APOO,APOOL,ATF2,ATP5F1A,ATP5F1B,ATP5F1C,ATP5F1D,ATP5F1E,ATP5MC1,ATP5MC2,ATP5MC3,ATP5ME,ATP5MF,ATP5MG,ATP5PB,ATP5PD,ATP5PF,ATP5PO,CALM1,CAMK4,CARM1,CHCHD3,CHCHD6,CHD9,CREB1,CREBBP,CRTC1,CRTC2,CRTC3,CYCS,DMAC2L,DNAJC11,ESRRA,GABPA,GABPB1,GLUD1,GLUD2,HCFC1,HDAC3,HELZ2,HSPA9,IDH2,IMMT,MAPK11,MAPK12,MAPK14,MED1,MEF2C,MEF2D,MICOS10,MICOS13,MT-ATP6,MT-ATP8,MTERF1,MTX1,MTX2,NCOA1,NCOA2,NCOA6,NCOR1,NR1D1,NRF1,PERM1,POLG2,POLRMT,PPARA,PPARGC1A,PPARGC1B,PPRC1,PRKAA2,PRKAB1,PRKAB2,PRKAG1,PRKAG2,PRKAG3,RXRA,SAMM50,SIRT3,SIRT4,SIRT5,SMARCD3,SOD2,SSBP1,TBL1X,TBL1XR1,TFAM,TFB1M,TFB2M,TGS1,TMEM11,TWNK,USP46</t>
   </si>
   <si>
-    <t>MITOCHONDRIAL_PART</t>
-  </si>
-  <si>
     <t>ABCB6,ABCB7,ABCB8,ABCF2,ACADM,ADAP2,AIFM2,AIFM3,ALAS2,ALDH4A1,ATP5F1A,ATP5F1B,ATP5F1C,ATP5F1D,ATP5F1E,ATP5MC1,ATP5MC2,ATP5MC3,ATP5PB,ATP5PF,ATP5PO,BAX,BCKDHA,BCKDHB,BCKDK,BCL2,BCS1L,BNIP3,CASP7,CASQ1,CCAR2,COX15,COX18,COX6B2,CS,CYCS,DBT,DNAJA3,ETFA,ETFB,FIS1,GATM,GRPEL1,HADHB,HCCS,HSD3B1,HSD3B2,HTRA2,IMMT,MAOB,MARS2,MCL1,MFN2,MPV17,MRPL10,MRPL12,MRPL23,MRPL32,MRPL40,MRPL41,MRPL42,MRPL51,MRPL52,MRPL55,MRPS10,MRPS11,MRPS12,MRPS15,MRPS16,MRPS18A,MRPS18C,MRPS21,MRPS22,MRPS24,MRPS28,MRPS35,MRPS36,MSTO1,MT-ND1,MTX2,NDUFA1,NDUFA13,NDUFA2,NDUFA6,NDUFA9,NDUFAB1,NDUFB6,NDUFS1,NDUFS2,NDUFS3,NDUFS4,NDUFS7,NDUFS8,NDUFV1,NFS1,NNT,NR3C1,OGDH,OPA1,OXA1L,PHB1,PHB2,PIN4,PITRM1,PMPCA,POLG2,PPOX,RAB11FIP5,RAF1,RHOT1,RHOT2,SDHA,SDHAF3,SDHD,SLC25A1,SLC25A11,SLC25A15,SLC25A22,SLC25A3,SLC25A6,SUPV3L1,SURF1,TAMM41,TFB2M,TIMM10,TIMM13,TIMM17A,TIMM17B,TIMM23,TIMM44,TIMM50,TIMM8B,TIMM9,TOMM22,TOMM34,UCP3,UQCRB,UQCRC1,UQCRH,VDAC1,VDAC2,VDAC3</t>
   </si>
   <si>
-    <t>HALLMARK_APOPTOSIS</t>
-  </si>
-  <si>
     <t>ADD1,AIFM3,ANKH,ANXA1,APP,ATF3,AVPR1A,BAX,BCAP31,BCL10,BCL2L1,BCL2L10,BCL2L11,BCL2L2,BGN,BID,BIK,BIRC3,BMF,BMP2,BNIP3L,BRCA1,BTG2,BTG3,CASP1,CASP2,CASP3,CASP4,CASP6,CASP7,CASP8,CASP9,CAV1,CCNA1,CCND1,CCND2,CD14,CD2,CD38,CD44,CD69,CDC25B,CDK2,CDKN1A,CDKN1B,CFLAR,CLU,CREBBP,CTH,CTNNB1,CYLD,DAP,DAP3,DCN,DDIT3,DFFA,DIABLO,DNAJA1,DNAJC3,DNM1L,DPYD,EBP,EGR3,EMP1,ENO2,ERBB2,ERBB3,EREG,ETF1,F2,F2R,FAS,FASLG,FDXR,FEZ1,GADD45A,GADD45B,GCH1,GNA15,GPX1,GPX3,GPX4,GSN,GSR,GSTM1,GUCY2D,H1-0,HGF,HMGB2,HMOX1,HSPB1,IER3,IFITM3,IFNB1,IFNGR1,IGF2R,IGFBP6,IL18,IL1A,IL1B,IL6,IRF1,ISG20,JUN,KRT18,LEF1,LGALS3,LMNA,LUM,MADD,MCL1,MGMT,MMP2,NEDD9,NEFH,PAK1,PDCD4,PDGFRB,PEA15,PLAT,PLCB2,PLPPR4,PMAIP1,PPP2R5B,PPP3R1,PPT1,PRF1,PSEN1,PSEN2,PTK2,RARA,RELA,RETSAT,RHOB,RHOT2,RNASEL,ROCK1,SAT1,SATB1,SC5D,SLC20A1,SMAD7,SOD1,SOD2,SPTAN1,SQSTM1,TAP1,TGFB2,TGFBR3,TIMP1,TIMP2,TIMP3,TNF,TNFRSF12A,TNFSF10,TOP2A,TSPO,TXNIP,VDAC2,WEE1,XIAP</t>
   </si>
   <si>
@@ -628,6 +613,81 @@
   </si>
   <si>
     <t>10.1038/s41588-024-01872-x</t>
+  </si>
+  <si>
+    <t>HDAC1,HDAC2,HDAC3,HDAC8,HDAC4,HDAC5,HDAC7,HDAC9,HDAC6,HDAC10,SIRT1,SIRT2,SIRT3,SIRT4,SIRT5,SIRT6,SIRT7,HDAC11,TCF1,LEF1</t>
+  </si>
+  <si>
+    <t>Sami Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:32855658 </t>
+  </si>
+  <si>
+    <t>KAT2A,KAT2B,ELP3,KAT5,KAT6A,KAT6B,KAT7,KAT8,EP300,CREBBP,TAF1,ATAT1,ESCO1,ESCO2,HPSE2 ,ITGA2B,KYAT1,KAT8,KAT7,KAT5</t>
+  </si>
+  <si>
+    <t>HIST1H1A,HIST1H1B,HIST1H1C,HIST1H1D,HIST1H1E,H1FX,HIST1H2AA,HIST1H2AB,HIST1H2AC,H2AFX,H2AFZ,HIST1H2BA,HIST1H2BB,HIST1H2BC,HIST1H2BD,HIST1H3A,HIST1H3B,HIST1H3C,H3F3A,H3F3B,HIST1H4A,HIST1H4B</t>
+  </si>
+  <si>
+    <t>TP53,STAT3,MYC,HSP90AA1,SNAI1,SMC3,MPC2,PGK1</t>
+  </si>
+  <si>
+    <t>NDUFA1,NDUFA2,NDUFA3,NDUFA4,NDUFA5,NDUFA6,NDUFA7,NDUFA8,NDUFA9,NDUFA10,NDUFA11,NDUFA12,NDUFA13,NDUFB1,NDUFB2,NDUFB3,NDUFB4,NDUFB5,NDUFB6,NDUFB7,NDUFB8,NDUFB9,NDUFB10,NDUFB11,NDUFS1,NDUFS2,NDUFS3,NDUFS4,NDUFS5,NDUFS6,NDUFS7,NDUFS8,NDUFV1,NDUFV2,NDUFV3,SDHA,SDHB,SDHC,SDHD,UQCRC1,UQCRC2,UQCRB,UQCRQ,CYCS,CYC1,COX1,COX2,COX3,COX4I1,COX4I2,COX5A,COX5B,COX6A1,COX6A2,COX6B1,COX6C,COX7A1,COX7A2,COX7B,COX7C,ATP5F1A,ATP5F1B,ATP5F1C,ATP5F1D,ATP5F1E,ATP5MC1,ATP5MC2,ATP5MC3,ATP5PB,ATP5PD,ATP5PF</t>
+  </si>
+  <si>
+    <t>chatGPT</t>
+  </si>
+  <si>
+    <t>(Sami) Lysine deacetylases (KDACs)</t>
+  </si>
+  <si>
+    <t>(Sami) Lysine acetyltransferases (KATs)</t>
+  </si>
+  <si>
+    <t>(Sami) Acetylated histones</t>
+  </si>
+  <si>
+    <t>(Sami) Acetylated non-histone proteins</t>
+  </si>
+  <si>
+    <t>(Sami) Inflammation</t>
+  </si>
+  <si>
+    <t>(Sami) Proliferation</t>
+  </si>
+  <si>
+    <t>(Sami) Cell Cycle</t>
+  </si>
+  <si>
+    <t>(Sami) DNA damage</t>
+  </si>
+  <si>
+    <t>(Sami) DNA repair</t>
+  </si>
+  <si>
+    <t>(Sami) Oxidative phosphorylation (OXPHOS)</t>
+  </si>
+  <si>
+    <t>(Monica) WP_AUTOPHAGY</t>
+  </si>
+  <si>
+    <t>(Monica) SA_PROGRAMMED_CELL_DEATH</t>
+  </si>
+  <si>
+    <t>(Monica) REACTOME_MITOCHONDRIAL_BIOGENESIS</t>
+  </si>
+  <si>
+    <t>(Monica) MITOCHONDRIAL_PART</t>
+  </si>
+  <si>
+    <t>(Monica) HALLMARK_APOPTOSIS</t>
+  </si>
+  <si>
+    <t>(Sami) DNA methylation</t>
+  </si>
+  <si>
+    <t>DNMT1,DNMT3A,DNMT3B,DNMT3L,TET1,TET2,TET3,UHRF1,MECP2,MBD1,MBD2,MBD3,MBD4,ZBTB33,ZBTB38,ZBTB4,DMAP1,AICDA,APOBEC1,APOBEC3A,APOBEC3B</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,14 +1090,14 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2011,75 +2071,234 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="D79" t="s">
         <v>187</v>
       </c>
-      <c r="D79" t="s">
-        <v>188</v>
-      </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" t="s">
         <v>192</v>
-      </c>
-      <c r="D81" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D83" t="s">
-        <v>188</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A87" xr:uid="{16A74B7B-773D-4D2D-A1EA-E16BA506650B}">
+      <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/CellScores/cellscores.xlsx
+++ b/resources/CellScores/cellscores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cailab\GitHub\scGEAToolbox\resources\CellScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F5CE8-7708-459A-81E9-74E8649E8531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ABB89C-8E4F-468E-9BA0-4DF2FD870184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="227">
   <si>
     <t>ScoreType</t>
   </si>
@@ -688,6 +688,24 @@
   </si>
   <si>
     <t>DNMT1,DNMT3A,DNMT3B,DNMT3L,TET1,TET2,TET3,UHRF1,MECP2,MBD1,MBD2,MBD3,MBD4,ZBTB33,ZBTB38,ZBTB4,DMAP1,AICDA,APOBEC1,APOBEC3A,APOBEC3B</t>
+  </si>
+  <si>
+    <t>(ikarus) Normal</t>
+  </si>
+  <si>
+    <t>(ikarus) Tumor</t>
+  </si>
+  <si>
+    <t>RP11-277P12.10,RP13-895J2.6,BNC1,MAGEA6,ISX,MAGEA3,RP13-614K11.2,CDH7,CALML3,A1CF,CLEC2L,ZNF280A,ANXA13,SOX14,GAL,RP11-626H12.2,FGB,HOXD11,CDX2,LINC00973,CTC-529P8.1,LINC01234,RP11-416I2.1,LCN15,ONECUT2,KCNF1,CPN1,CDK5R2,GLYATL1,RP1-140K8.5,RP11-221N13.3,PPP1R14D,RP11-244M2.1,CEL,RETNLB,PBK,LRRIQ4,ANLN,DEPDC1,RNF186,LINC01510,HMGA2,ITPKA,ACMSD,SYNGR4,RP11-734K21.5,UGT2B15,LINC00460,MYO3A,PITX1,PCSK1,CTD-2034I21.2,SPC25,RP11-54H7.4,PLK1,INSM1,UGT2B7,DLGAP5,TBX10,KRTAP4-1,PKMYT1,STRA6,MND1,AZGP1,CNTD2,AC005355.2,CDCA3,MET,SLC13A2,SLC38A3,GJB5,RRM2,CDC45,ADGRF4,PHGR1,KIF4A,NPTX2,FGL1,UBE2C,CALCA,GJB4,PCDHGA1,VIL1,CCNB2,FGFBP1,RP11-595B24.2,RAD54L,EPHA8,FAM25A,CRYBA2,CPLX2,AC011298.2,DIAPH3,AURKB,RP11-211G23.2,ENTPD2,BIRC5,HJURP,HMMR,DHRS2,GTSE1,SERPINB5,DBNDD1,PADI1,FAM83A,KRT6A,COL17A1,SPDEF,CTC-573N18.1,S100A2,IL37,DPP10,STC2,RP11-546K22.1,CDC25C,CTD-3010D24.3,SAA1,TK1,LY6D,XG,RP5-875H18.9,E2F8,HEPACAM2,DLL3,MKI67,SLC25A48,RNF183,KIF14,CDCA5,KLK5,CMBL,PHYHIPL,INHA,CENPA,MELK,BCO1,FABP1,PLOD2,LINC01511,GJC3,TMED6,AC007879.7,KIF12,SAA2,CHST1,GALNT14,MYBL2,SLC7A9,VSTM2L,GAS2,RP13-463N16.6,TYMS,KRT24,SAA4,KIAA0101,BEAN1,GRB14,ZFHX4,AGT,RP11-368L12.1,APCDD1L,S100A3,RP11-277P12.10,RP13-895J2.6,BNC1,MAGEA6,ISX,MAGEA3,RP13-614K11.2,CDH7,CALML3,A1CF,CLEC2L,ZNF280A,ANXA13,SOX14,GAL,RP11-626H12.2,FGB,HOXD11,CDX2,LINC00973,CTC-529P8.1,LINC01234,RP11-416I2.1,LCN15,ONECUT2,KCNF1,CPN1,CDK5R2,GLYATL1,RP1-140K8.5,RP11-221N13.3,PPP1R14D,RP11-244M2.1,CEL,RETNLB,PBK,LRRIQ4,ANLN,DEPDC1,RNF186,LINC01510,HMGA2,ITPKA,ACMSD,SYNGR4,RP11-734K21.5,UGT2B15,LINC00460,MYO3A,PITX1,PCSK1,CTD-2034I21.2,SPC25,RP11-54H7.4,PLK1,INSM1,UGT2B7,DLGAP5,TBX10,KRTAP4-1,PKMYT1,STRA6,MND1,AZGP1,CNTD2,AC005355.2,CDCA3,MET,SLC13A2,SLC38A3,GJB5,RRM2,CDC45,ADGRF4,PHGR1,KIF4A,NPTX2,FGL1,UBE2C,CALCA,GJB4,PCDHGA1,VIL1,CCNB2,FGFBP1,RP11-595B24.2,RAD54L,EPHA8,FAM25A,CRYBA2,CPLX2,AC011298.2,DIAPH3,AURKB,RP11-211G23.2,ENTPD2,BIRC5,HJURP,HMMR,DHRS2,GTSE1,SERPINB5,DBNDD1,PADI1,FAM83A,KRT6A,COL17A1,SPDEF,CTC-573N18.1,S100A2,IL37,DPP10,STC2,RP11-546K22.1,CDC25C,CTD-3010D24.3,SAA1,TK1,LY6D,XG,RP5-875H18.9,E2F8,HEPACAM2,DLL3,MKI67,SLC25A48,RNF183,KIF14,CDCA5,KLK5,CMBL,PHYHIPL,INHA,CENPA,MELK,BCO1,FABP1,PLOD2,LINC01511,GJC3,TMED6,AC007879.7,KIF12,SAA2,CHST1,GALNT14,MYBL2,SLC7A9,VSTM2L,GAS2,RP13-463N16.6,TYMS,KRT24,SAA4,KIAA0101,BEAN1,GRB14,ZFHX4,AGT,RP11-368L12.1,APCDD1L,S100A3</t>
+  </si>
+  <si>
+    <t>RP11-128M1.1,TRAV8-2,PTPRD-AS1,MEOX2,CXCL12,KLRC4-KLRK1,BCAS1,SCNN1A,HCST,OR51E1,PCLO,CD7,COL1A2,CFAP100,CCDC60,WNT4,CFAP45,RP11-522B15.3,RP11-462G2.1,ANKRD66,CYTIP,HSPB2,USH1C,NCR3,SMIM24,MYL6B,CD79A,TRBV5-1,IGKV2D-28,CDH6,XDH,AK7,COL5A1,PTPRC,EBF2,IL17F,CD48,GATA6-AS1,RP11-109M17.2,DPT,COL15A1,C5ORF49,CD8B,PLS1,ODAM,CCDC114,TM6SF2,RASL12,ECT2L,TAGLN,ANKUB1,RSPH4A,SIRPG,LINC01133,CD52,TRAV8-6,GIP,RP11-428G5.5,PTPN22,AC092580.4,GJC1,LINC01207,MSLN,ABLIM3,FAM180A,LINC01266,RP11-247C2.2,TM4SF4,FBXO15,TRPC4,FMO1,GNGT1,AC104820.2,FHL5,SFRP4,CREM,SOX2,RSPH1,SLC44A4,NTF3,EMILIN1,OGN,XCL2,PCGF2,ADAMTSL1,CORIN,STMND1,KLRC3,RSPH9,XIRP1,CD36,RBBP8NL,TOX3,DUOXA2,PRDM6,KCNA3,SERPINB4,CLDN16,RP11-329N22.1,GPRC5A,ZNF831,RP11-109E24.1,MDH1B,C6ORF118,CDHR2,EFNA1,NOS1AP,ALDH1L1,C9ORF116,RBP2,SLFN12L,SVEP1,PTPRT,FGF1,RGN,LRRC74B,ADGRA2,TDGF1,RP11-620J15.3,TMC5,SERPINB3,MXRA8,RP11-467J12.4,CDH1,FLNC,DIO2,CD200R1,ADH1C,CNGA1,C1ORF64,ARMC4,ADAMTS12,ARHGEF16,COL5A2,C1QTNF3,NOTUM,COL6A5,SLC10A5,TRGV3,AC104024.1,KLRD1,SCGB2A1,C1ORF189,AF127936.3,TMEM158,RP11-330A16.1,CGN,AKR7A3,PDE5A,CTD-2334D19.1,RP11-240M16.1,TRAV36DV7,KLK11,FCRL6,C7ORF57,WFDC6,RP11-403B2.6,GPR20,CFAP47,MFAP2,HMCN1,CD6,HGD,CERKL,FAP,CCL15,AC112715.2,WIF1,CAV1,SLA,CPXM2,IRGM,TMEM232,HOXA2,ANKRD45,GABRD,RGS7BP,GPX8,CTSE,SDR16C5,IL22RA1,LINC00675,SMIM6,KCNK1,ADAM33,CCDC181,LCN2,GATA3,RP11-95H3.1,TSNAXIP1,RP11-342D11.3,ABCA8,C1R,CTD-2147F2.1,CNTFR,EVA1A,B4GALNT2,FXYD3,RP11-193M21.1,MASP1,SPATA17,PCDHB10,FCER2,TMEM156,APOBEC1,ZMYND10,OLFM4,TRAV22,RP1-60O19.1,ITGBL1,DNAI1,CXORF36,PRRG3,BHLHE22,HOXD9,PLEKHH2,SAMD3,GZMM,NR2F1,RERG,LINC01186,RASAL3,ITGB3,TDRP,WISP2,ADIRF,CACNG6,BICC1,HSD17B2,ALPPL2,NMNAT2,KRT73,RP11-146I2.1,IGFBP7,LAMA3,SLA2,LRP3,LGR5,CARMN,SLIT3,GPR65,CLDN3,LGALS4,CCDC74A,MORN5,PTPRD,ALOX15,FRMD6,CKMT1B,FAM159A,RHOH,DNAH6,ZNF683,BMPER,C3ORF70,TRAV13-2,CTD-2544H17.1,FOXF2,HSPB7,RSPH10B2,SELL,TPPP3,COL11A1,NKG7,AGTR1,LRRC34,CCDC113,PTPRH,GSTM5,FAM83B,LINC00494,SAXO2,IL7R,AMY1B,TIGIT,TENM3,PRSS1,KCNMB1,TRAV12-2,CDH19,NES,MYL9,ACAP1,PCDH8,SCN7A,RP11-598F7.6,C10ORF107,TRBC1,PLA2G5,LRCH2,GPT,ART4,RP11-731D1.4,TRBV6-2,TRAV29DV5,CLIC2,SPIRE1,SGCA,STOX1,TRGC1,SPATA4,FAM13C,SMCO3,IKZF3,IKZF1,TRAV23DV6,PLA2G2F,C6,RP11-104L21.3,RP5-1172A22.1,GPR171,CCNA1,C9ORF135,KRT1,IQCD,WI2-1959D15.1,DRC1,C2ORF50,ELF3,GZMK,CTSW,P2RY8,GLOD5,DLX5,EVI2B,ENOX1,ITK,TNFSF8,DNAH9,SYTL5,LAMC3,TMIGD2,MRGPRF,PPP1R17,IL9R,OMG,SFTA2,THBS2,CFAP65,EPB41L2,PLPPR4,CKB,ICOS,BOC,ZNF80,C4ORF22,XCL1,FUT2,AKR1B10,CCDC33,GRM8,ARNT2,RP11-796E10.1,TEKT4,MAL2,ADAMTS8,C11ORF97,FNDC9,TRAF3IP3,ASS1,RSPO2,PCDH19,DRD5,FAM81B,CD160,TMPRSS2,RASEF,SPRR2D,IL21,C1ORF158,SULF1,ENPEP,KLHDC7A,BMX,NRGN,C2ORF40,SPSB4,COL1A1,CTHRC1,TMEM184A,PLA2G10,VSIG2,COL6A2,C7,IFI27L2,TRGV10,NPC2,HHEX,NGEF,GPR176,TMEM125,LINC00839,CTD-2171N6.1,WDR38,RP13-870H17.3,CFAP43,PCSK1N,PAMR1,AOX1,KIR2DL4,NDRG2,LRRC15,RP11-106M7.1,PIH1D3,TRAV2,C22ORF23,MAB21L3,AL928768.3,CFAP126,STRN3,GAS1,RP11-291B21.2,C11ORF70,CCL2,VWA5B2,RP4-621F18.2,ISLR,ZIC1,TRAV4,CASC9,OLFML2A,EVI2A,SCN2B,IL12RB1,TBC1D10C,FCRL1,TRBV3-1,MYL2,PDIA2,CXCR4,PSMA8,TRAT1,PRR16,PDGFRA,RP11-239A17.1,HYDIN,CD69,KIF6,HEATR9,F10,RHOJ,FOXQ1,NAV3,SPINK4,GDF10,GLT8D2,TAGLN3,DNAJB13,FXYD4,RP11-18H21.1,MS4A3,CFAP77,PALM,CTD-2506J14.1,TRAV9-2,FAM43B,CCL11,TRBV14,CFAP73,TRAV1-2,CLEC2D,FSTL4,APCDD1,RP11-87C12.5,TFF2,APOH,TRDV1,AC007349.5,FCRL5,CEACAM7,RP11-297L17.2,LAX1,FAM216B,ANGPTL5,CD3D,RP11-325F22.2,HEPH,NCR1,MS4A8,RSPH14,LMO3,KB-173C10.1,CTD-2005H7.1,PRRX1,VCAN,CTA-363E6.2,CD164L2,GSTA1,MMP11,PDZK1IP1,EYA4,KLHL13,C1S,CDH11,LINC00702,BPIFA2,CILP,TSPAN12,RP11-321G12.1,MUC5AC,S100B,KLK12,TBX4,FAM3D,SYNDIG1,HNF1B,STAT4,HSPB3,GPX2,SPRR3,SFTPD,CD27,EFCAB10,C16ORF71,ANXA10,STK32A,SCEL,DEUP1,TRBV6-5,PLA2G4F,CYP4F22,LMOD1,LUM,BTLA,TCN1,PYHIN1,CGNL1,TRAV20,PLCXD3,RP11-569D9.5,EGFLAM,CTD-2626G11.2,LINC01571,FGD1,NOX4,GALNT15,RAB31,IFNG,LRFN5,TRAV14DV4,TRAV26-1,CNIH2,KRT16,TNFRSF13C,LOXL1,ADAMTSL2,PRSS8,TWIST2,ARL14,SFTA1P,C1QTNF7,EPHA10,LAT,FOXL1,LINC00844,TSPAN1,C9ORF47,RP11-297J22.1,SPN,TCTEX1D4,RASSF10,GUCY1A2,TLL1,ABCC8,LINC00668,HMGCLL1,LINC00563,GRAMD2,AC006129.2,TRAV13-1,CD40LG,TDRD6,RNASE1,SELE,AC002331.1,PXDNL,TPM2,FAM166B,SOX17,CCR4,MIR4458HG,HAS2,WFDC1,SCARA5,CST3,COL19A1,PCDHB14,PDGFRB,RP11-129I19.2,LYPD8,PDCD1,DUOX2,SLC16A2,CTLA4,C4BPA,RP11-368I7.4,PRR15L,SV2B,SNTN,RP4-666F24.3,CXCR6,PCDHB11,CCM2L,PLA2G2A,NID2,IGDCC4,CFAP206,CST7,RP11-222K16.2,CDHR5,FRZB,CFAP161,KLK7,CLDN18,LINC01612,EOMES,TRAV6,CCDC74B,CAPN8,PGM5P4-AS1,PCDH18,COL4A2,NKD2,CRTAM,KLRC1,RARRES2,AP1S2,CCDC175,MMP2,FLRT3,SEMA3A,APOBEC4,CFAP46,LIPH,RAB25,CHRNA6,C17ORF82,CNN1,RP11-176H8.1,PIP,DYDC1,FAM183A,ADGRF1,SP140,RP11-395E19.6,DZIP1,POSTN,CHRDL1,GUCA2A,TRGV4,SLC2A4,TNXB,IL2,DLEC1,MAP3K19,GZMA,KBTBD12,EFCC1,LRRC66,CCR7,DIO3OS,RTP5,PRG4,CTC-436P18.3,MGP,NGF,DYDC2,SPINK1,KIR3DL1,BEST4,GPRC5B,CD28,MFAP5,YAP1,THEMIS,TRBC2,LINC00402,VWA3B,RFX8,ZFPM2,GLTPD2,SIT1,MXRA5,FIBIN,CBLC,PPP1R42,TSPAN8,GFRA3,PRF1,LTB,ERICH3,OMD,EPHA3,TJP3,SLC51B,CLDN7,FCRL3,KLRC2,CYP3A4,SAMSN1,TMEM244,GJA5,PLPPR1,TTLL6,GFRA1,LINC01317,SYDE1,TEK,CD37,RP1-142L7.8,EFEMP2,CLIP3,TEKT1,TRIM31,SPOCK1,AC093375.1,FYB,TRAPPC3L,FNDC1,HTRA3,EPS8L3,CACNA1C,LRCOL1,SRGN,SCARF1,CYP4B1,GPR174,TRAV27,CD244,CHST9,LTBP1,LAMA4,C11ORF16,CFAP57,SPARC,STAB2,C1ORF87,RIBC2,KIR3DL2,COL6A6,NOG,CRISP2,FABP6,IL22,TEKT2,STAP1,PPIL6,LINC00922,WDR93,NME5,LDLRAD1,AC097713.4,PPFIA2,RP11-74E22.6,LINC01117,DCDC2B,NCAM2,HOXB8,ROR2,KLK13,CKMT1A,ISLR2,CBLN4,ELOVL2,MMP13,HTR1F,RGS1,PTH1R,LAPTM5,MOV10L1,PIFO,HDC,KIR2DL3,SPRR2A,LINC00861,GPR18,LINC01197,AKNAD1,COL4A1,CFAP74,PALM2,SLCO1C1,RP11-314C16.1,CD19,RP1-79C4.4,LINC01436,GCNT3,OLFML1,CD247,CPXM1,CTB-133G6.1,IL4,RP11-344P13.6,TUBA4B,LINC00891,CD34,KCNJ15,WNT2,MISP,LCK,COL3A1,RP11-367G6.3,CLSTN2,RP11-101E5.1,PKNOX2,RP11-108M9.4,KCNJ8,KIRREL,KIR3DL3,SLPI,DEFB4A,FER1L6,SPRR1B,ZNF20,LMO7,FAM92B,RPS6KA2,LRRC43,AC195454.1,HRCT1,APELA,C1QTNF4,ARHGEF38,PABPC5,TTC29,ANGPT1,EFCAB6,ASPG,CD248,MRVI1,ADGRL4,VWA3A,TNFRSF17,AEBP1,CCL5,U47924.27,TRAV30,NR0B2,NBAT1,UNC5C,RP11-347J14.7,SSTR3,EBF3,IGLV4-60,TNFRSF13B,FKBP1A,CASC1,PLPP4,FOXC2,PRPH2,KRT72,ATP10B,TM4SF5,HHATL,VPREB3,IGHD,UCHL1,RP11-493L12.7,CD93,APOBEC3H,PCOLCE,CEACAM6,GRIN3B,COL14A1,BLK,CATSPERD,CD3E,KANK4,LY9,FAM170B,TMPRSS4,ATP1A2,DOK2,IGSF9,GCSAM,AGR3,ACKR1,FAM162B,AC109642.1,FOXA2,AKAP14,PEG10,MEG8,REM1,SPINK5,ADGRF5,KLK10,IGFL3,GML,SCGN,EDIL3,COL6A1,TRAV1-1,TSPAN19,IGLV9-49,S100A14,GTSCR1,TEKT3,MFAP4,RUNX1T1,B3GALT5,SPARCL1,PCP4,JAKMIP1,KCNJ16,CTB-41I6.1,TRBV28,HNF4A,PPP1R14A,RIBC1,PSCA,B3GNT6,PRKG1,MEG3,SOWAHA,SPAG6,RP3-446N13.5,PODN,FCMR,RERGL,UNC5A,EPN3,RP11-144A16.8,PIH1D2,GRAP2,ATP8A2,EPPIN,FAM101A,C1QTNF2,PRRX2,TM4SF20,GIPC3,AGMO,RHOBTB2,C9ORF24,SULT1A2,MALL,STOML3,RGS22,TTC25,SLAMF1,MS4A2,CAPN9,PID1,NREP,GPC3,CNTN4,SLC38A4,RGPD4,ECM2,LRRC73,AOC1,ATP6V1C2,SUGCT,SLC9C2,FBLN2,CD5,THY1,CAMK4,CYP2B6,ROPN1B,TRAV16,RP11-275I4.2,CDK2AP1,SPOCK2,SMIM22,OPRM1,FAM26E,ONECUT3,CD53,ASPA,TRGV8,ADAMTS3,CD96,LINC00158,TESPA1,GFI1,IL12RB2,NLRC3,SDCBP2,SLC6A14,COX7A1,TRAV19,S100P,LHFP,SRD5A2,RP11-693J15.5,TRBV27,KIF26B,TRAV5,MAMDC2,RP11-973H7.4,TMEM54,CCDC80,ARX,SLC15A1,LIM2,C20ORF85,KLRC4,JPH2,CCR6,LINC01615,SEMA3B,SPATA18,INMT,TBX2,LINC00544,MYL3,RUNDC3B,VEGFD,NKX6-1,PI3,C5,CCL21,LINC00384,GPR4,UCN3,COL6A3,COL10A1,RP11-973H7.1,SEMA3F,PPP1R1B,PIGR,RP11-879F14.2,EDNRA,STX19,ROPN1L,MDK,CLDN4,SMOC2,SEMA3D,MKX,CLDN8,CYP2C18,MUC13,FOXJ1,CDHR4,DNAH5,NOTCH3,KLRB1,TRAV12-1,GPRIN2,RIMBP2,HMGCS2,RASGRP1,LRRC17,C1ORF194,FSTL1,ELN,CORO1A,LRRC46,ASPN,RP11-175K6.1,CD24,VTCN1,PDE1C,C1ORF141,LGI4,ADH1B,NKX3-2,TCF21,KCNT2,CST2,AC006273.5,C2ORF70,FIBCD1,RP11-493L12.5,SYTL3,DES,KLRK1,DLC1,CROCC2,DMBT1,ANO2,PFN2,CD2,TCEAL7,SFRP2,RSPH10B,ANO1,GRIP2,PGLYRP2,LTBP2,LINC01559,HSF5,FMO3,ERBB3,SGCD,PIEZO2,ARHGAP39,KIR2DL1,RP11-89K21.1,GAL3ST1,TRAV8-4,COMP,FCRL2,ITGA8,PROK2,FAM83E,TMEM190,MTUS1,TRBV2,SOX18,BGN,MUC5B,CCDC129,FAM198B,TKTL1,RAMP2,GAS2L2,ADAMTS5,EFCAB1,ERN2,TMEM47,TBX21,SUSD5,KLRG1,CSMD1,CSDC2,RP11-445L6.3,SLIT2,P2RY10,PCDHB7,TRGV9,KITLG,PLAC9,KCNRG,PROX2,FASLG,KLK8,MUC3A,TRDC,CXCR5,CST4,RP11-10A14.5,S1PR4,TAGAP,C2ORF73,GUCA2B,GALNT16,IFI27,FBN1,RAD51AP2,SYNPO2,CCDC148,DYNLRB2,MST1R,MUC4,PGR,CTD-2008P7.9,MEF2C,ZBED9,DAW1,ST8SIA2,CAPSL,SPEF1,RP11-753D20.3,CALD1,MUC1,CFAP52,DIO3,FGF14,FOXS1,CD3G,CHST4,CD226,WFDC10B,ARHGAP9,ERICH5,CILP2,WFDC2,TEPP,IL18RAP,PTK6,TRGC2,HOXB5,UBASH3A,AGR2,AC092484.1,APLNR,MSRB3,ENTPD8,MRLN,MOXD1,FOXF1,ANGPTL1,HS3ST3A1,SULT1A1,CDH17,RP11-290F5.1,HSPA12B,CXCL17,TYRP1,MROH9,CEACAM5,ADGB,RCN3,ZBBX,VWF,MYH14,FILIP1,KIAA1755,RAB17,GHR,DCN,FBLN1,CHST6,ANKRD2,SFTPA2,LRRIQ1,IQUB,TRAV17,PTN,DNER,TMC4,RP5-887A10.1,C11ORF88,ANGPTL2,ADAMTS16,CLIC6,IL2RB,SLAMF6,RP3-431P23.5,ITLN2,RP11-54A9.1,RP11-125O18.1,PLN,SALL1,WDR78,REG4,ZAP70,COX4I2,FGL2,CFAP58,WISP1,NXN,SPINK8,DRC7,ADAMTS4,SELENBP1,MSMB,ELFN1,GJA1,SRPX,SYT13,RBPMS,CCDC78,DNAAF3,MS4A1,CD8A,HSD17B6,LRRC71,C4BPB,RGL4,FCRLA,IL26,POU2F3,PCK1,SGIP1,BCHE,PALM3,RIIAD1,IL1R1,PRELP,ARMC3,MYRF,BMP3,GSTA3,PRAP1,ROBO2,AMN,ENKUR,DNAH12,TMEM212,RP11-486M23.1,TFF1,TRGV2,MYOC,CFAP53,GJA4,SEZ6L2,SHISA2,PACRG,GRHL2,PDZRN3,GZMH,CAPS,TRAC,AP000344.3,ANTXR1,TMEM119,HSPB6,SH2D1A,WDR72,GGT6,PI15,CFAP157,TACC2,LGALS1,MYLK,DOCK1,IGLV5-48,ELF5,C22ORF15,CYP4F11,AK8,LRRC18,LMO2,COL12A1,ITGA11,EGFL6,RGS11,PCDHB15</t>
+  </si>
+  <si>
+    <t>PMID: 35637521</t>
+  </si>
+  <si>
+    <t>Identifying tumor cells</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2293,6 +2311,34 @@
         <v>197</v>
       </c>
     </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A87" xr:uid="{16A74B7B-773D-4D2D-A1EA-E16BA506650B}">

--- a/resources/CellScores/cellscores.xlsx
+++ b/resources/CellScores/cellscores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cailab\GitHub\scGEAToolbox\resources\CellScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\CellScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ABB89C-8E4F-468E-9BA0-4DF2FD870184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C2684-6651-418F-A4DE-9A01555FF0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="229">
   <si>
     <t>ScoreType</t>
   </si>
@@ -702,10 +702,16 @@
     <t>RP11-128M1.1,TRAV8-2,PTPRD-AS1,MEOX2,CXCL12,KLRC4-KLRK1,BCAS1,SCNN1A,HCST,OR51E1,PCLO,CD7,COL1A2,CFAP100,CCDC60,WNT4,CFAP45,RP11-522B15.3,RP11-462G2.1,ANKRD66,CYTIP,HSPB2,USH1C,NCR3,SMIM24,MYL6B,CD79A,TRBV5-1,IGKV2D-28,CDH6,XDH,AK7,COL5A1,PTPRC,EBF2,IL17F,CD48,GATA6-AS1,RP11-109M17.2,DPT,COL15A1,C5ORF49,CD8B,PLS1,ODAM,CCDC114,TM6SF2,RASL12,ECT2L,TAGLN,ANKUB1,RSPH4A,SIRPG,LINC01133,CD52,TRAV8-6,GIP,RP11-428G5.5,PTPN22,AC092580.4,GJC1,LINC01207,MSLN,ABLIM3,FAM180A,LINC01266,RP11-247C2.2,TM4SF4,FBXO15,TRPC4,FMO1,GNGT1,AC104820.2,FHL5,SFRP4,CREM,SOX2,RSPH1,SLC44A4,NTF3,EMILIN1,OGN,XCL2,PCGF2,ADAMTSL1,CORIN,STMND1,KLRC3,RSPH9,XIRP1,CD36,RBBP8NL,TOX3,DUOXA2,PRDM6,KCNA3,SERPINB4,CLDN16,RP11-329N22.1,GPRC5A,ZNF831,RP11-109E24.1,MDH1B,C6ORF118,CDHR2,EFNA1,NOS1AP,ALDH1L1,C9ORF116,RBP2,SLFN12L,SVEP1,PTPRT,FGF1,RGN,LRRC74B,ADGRA2,TDGF1,RP11-620J15.3,TMC5,SERPINB3,MXRA8,RP11-467J12.4,CDH1,FLNC,DIO2,CD200R1,ADH1C,CNGA1,C1ORF64,ARMC4,ADAMTS12,ARHGEF16,COL5A2,C1QTNF3,NOTUM,COL6A5,SLC10A5,TRGV3,AC104024.1,KLRD1,SCGB2A1,C1ORF189,AF127936.3,TMEM158,RP11-330A16.1,CGN,AKR7A3,PDE5A,CTD-2334D19.1,RP11-240M16.1,TRAV36DV7,KLK11,FCRL6,C7ORF57,WFDC6,RP11-403B2.6,GPR20,CFAP47,MFAP2,HMCN1,CD6,HGD,CERKL,FAP,CCL15,AC112715.2,WIF1,CAV1,SLA,CPXM2,IRGM,TMEM232,HOXA2,ANKRD45,GABRD,RGS7BP,GPX8,CTSE,SDR16C5,IL22RA1,LINC00675,SMIM6,KCNK1,ADAM33,CCDC181,LCN2,GATA3,RP11-95H3.1,TSNAXIP1,RP11-342D11.3,ABCA8,C1R,CTD-2147F2.1,CNTFR,EVA1A,B4GALNT2,FXYD3,RP11-193M21.1,MASP1,SPATA17,PCDHB10,FCER2,TMEM156,APOBEC1,ZMYND10,OLFM4,TRAV22,RP1-60O19.1,ITGBL1,DNAI1,CXORF36,PRRG3,BHLHE22,HOXD9,PLEKHH2,SAMD3,GZMM,NR2F1,RERG,LINC01186,RASAL3,ITGB3,TDRP,WISP2,ADIRF,CACNG6,BICC1,HSD17B2,ALPPL2,NMNAT2,KRT73,RP11-146I2.1,IGFBP7,LAMA3,SLA2,LRP3,LGR5,CARMN,SLIT3,GPR65,CLDN3,LGALS4,CCDC74A,MORN5,PTPRD,ALOX15,FRMD6,CKMT1B,FAM159A,RHOH,DNAH6,ZNF683,BMPER,C3ORF70,TRAV13-2,CTD-2544H17.1,FOXF2,HSPB7,RSPH10B2,SELL,TPPP3,COL11A1,NKG7,AGTR1,LRRC34,CCDC113,PTPRH,GSTM5,FAM83B,LINC00494,SAXO2,IL7R,AMY1B,TIGIT,TENM3,PRSS1,KCNMB1,TRAV12-2,CDH19,NES,MYL9,ACAP1,PCDH8,SCN7A,RP11-598F7.6,C10ORF107,TRBC1,PLA2G5,LRCH2,GPT,ART4,RP11-731D1.4,TRBV6-2,TRAV29DV5,CLIC2,SPIRE1,SGCA,STOX1,TRGC1,SPATA4,FAM13C,SMCO3,IKZF3,IKZF1,TRAV23DV6,PLA2G2F,C6,RP11-104L21.3,RP5-1172A22.1,GPR171,CCNA1,C9ORF135,KRT1,IQCD,WI2-1959D15.1,DRC1,C2ORF50,ELF3,GZMK,CTSW,P2RY8,GLOD5,DLX5,EVI2B,ENOX1,ITK,TNFSF8,DNAH9,SYTL5,LAMC3,TMIGD2,MRGPRF,PPP1R17,IL9R,OMG,SFTA2,THBS2,CFAP65,EPB41L2,PLPPR4,CKB,ICOS,BOC,ZNF80,C4ORF22,XCL1,FUT2,AKR1B10,CCDC33,GRM8,ARNT2,RP11-796E10.1,TEKT4,MAL2,ADAMTS8,C11ORF97,FNDC9,TRAF3IP3,ASS1,RSPO2,PCDH19,DRD5,FAM81B,CD160,TMPRSS2,RASEF,SPRR2D,IL21,C1ORF158,SULF1,ENPEP,KLHDC7A,BMX,NRGN,C2ORF40,SPSB4,COL1A1,CTHRC1,TMEM184A,PLA2G10,VSIG2,COL6A2,C7,IFI27L2,TRGV10,NPC2,HHEX,NGEF,GPR176,TMEM125,LINC00839,CTD-2171N6.1,WDR38,RP13-870H17.3,CFAP43,PCSK1N,PAMR1,AOX1,KIR2DL4,NDRG2,LRRC15,RP11-106M7.1,PIH1D3,TRAV2,C22ORF23,MAB21L3,AL928768.3,CFAP126,STRN3,GAS1,RP11-291B21.2,C11ORF70,CCL2,VWA5B2,RP4-621F18.2,ISLR,ZIC1,TRAV4,CASC9,OLFML2A,EVI2A,SCN2B,IL12RB1,TBC1D10C,FCRL1,TRBV3-1,MYL2,PDIA2,CXCR4,PSMA8,TRAT1,PRR16,PDGFRA,RP11-239A17.1,HYDIN,CD69,KIF6,HEATR9,F10,RHOJ,FOXQ1,NAV3,SPINK4,GDF10,GLT8D2,TAGLN3,DNAJB13,FXYD4,RP11-18H21.1,MS4A3,CFAP77,PALM,CTD-2506J14.1,TRAV9-2,FAM43B,CCL11,TRBV14,CFAP73,TRAV1-2,CLEC2D,FSTL4,APCDD1,RP11-87C12.5,TFF2,APOH,TRDV1,AC007349.5,FCRL5,CEACAM7,RP11-297L17.2,LAX1,FAM216B,ANGPTL5,CD3D,RP11-325F22.2,HEPH,NCR1,MS4A8,RSPH14,LMO3,KB-173C10.1,CTD-2005H7.1,PRRX1,VCAN,CTA-363E6.2,CD164L2,GSTA1,MMP11,PDZK1IP1,EYA4,KLHL13,C1S,CDH11,LINC00702,BPIFA2,CILP,TSPAN12,RP11-321G12.1,MUC5AC,S100B,KLK12,TBX4,FAM3D,SYNDIG1,HNF1B,STAT4,HSPB3,GPX2,SPRR3,SFTPD,CD27,EFCAB10,C16ORF71,ANXA10,STK32A,SCEL,DEUP1,TRBV6-5,PLA2G4F,CYP4F22,LMOD1,LUM,BTLA,TCN1,PYHIN1,CGNL1,TRAV20,PLCXD3,RP11-569D9.5,EGFLAM,CTD-2626G11.2,LINC01571,FGD1,NOX4,GALNT15,RAB31,IFNG,LRFN5,TRAV14DV4,TRAV26-1,CNIH2,KRT16,TNFRSF13C,LOXL1,ADAMTSL2,PRSS8,TWIST2,ARL14,SFTA1P,C1QTNF7,EPHA10,LAT,FOXL1,LINC00844,TSPAN1,C9ORF47,RP11-297J22.1,SPN,TCTEX1D4,RASSF10,GUCY1A2,TLL1,ABCC8,LINC00668,HMGCLL1,LINC00563,GRAMD2,AC006129.2,TRAV13-1,CD40LG,TDRD6,RNASE1,SELE,AC002331.1,PXDNL,TPM2,FAM166B,SOX17,CCR4,MIR4458HG,HAS2,WFDC1,SCARA5,CST3,COL19A1,PCDHB14,PDGFRB,RP11-129I19.2,LYPD8,PDCD1,DUOX2,SLC16A2,CTLA4,C4BPA,RP11-368I7.4,PRR15L,SV2B,SNTN,RP4-666F24.3,CXCR6,PCDHB11,CCM2L,PLA2G2A,NID2,IGDCC4,CFAP206,CST7,RP11-222K16.2,CDHR5,FRZB,CFAP161,KLK7,CLDN18,LINC01612,EOMES,TRAV6,CCDC74B,CAPN8,PGM5P4-AS1,PCDH18,COL4A2,NKD2,CRTAM,KLRC1,RARRES2,AP1S2,CCDC175,MMP2,FLRT3,SEMA3A,APOBEC4,CFAP46,LIPH,RAB25,CHRNA6,C17ORF82,CNN1,RP11-176H8.1,PIP,DYDC1,FAM183A,ADGRF1,SP140,RP11-395E19.6,DZIP1,POSTN,CHRDL1,GUCA2A,TRGV4,SLC2A4,TNXB,IL2,DLEC1,MAP3K19,GZMA,KBTBD12,EFCC1,LRRC66,CCR7,DIO3OS,RTP5,PRG4,CTC-436P18.3,MGP,NGF,DYDC2,SPINK1,KIR3DL1,BEST4,GPRC5B,CD28,MFAP5,YAP1,THEMIS,TRBC2,LINC00402,VWA3B,RFX8,ZFPM2,GLTPD2,SIT1,MXRA5,FIBIN,CBLC,PPP1R42,TSPAN8,GFRA3,PRF1,LTB,ERICH3,OMD,EPHA3,TJP3,SLC51B,CLDN7,FCRL3,KLRC2,CYP3A4,SAMSN1,TMEM244,GJA5,PLPPR1,TTLL6,GFRA1,LINC01317,SYDE1,TEK,CD37,RP1-142L7.8,EFEMP2,CLIP3,TEKT1,TRIM31,SPOCK1,AC093375.1,FYB,TRAPPC3L,FNDC1,HTRA3,EPS8L3,CACNA1C,LRCOL1,SRGN,SCARF1,CYP4B1,GPR174,TRAV27,CD244,CHST9,LTBP1,LAMA4,C11ORF16,CFAP57,SPARC,STAB2,C1ORF87,RIBC2,KIR3DL2,COL6A6,NOG,CRISP2,FABP6,IL22,TEKT2,STAP1,PPIL6,LINC00922,WDR93,NME5,LDLRAD1,AC097713.4,PPFIA2,RP11-74E22.6,LINC01117,DCDC2B,NCAM2,HOXB8,ROR2,KLK13,CKMT1A,ISLR2,CBLN4,ELOVL2,MMP13,HTR1F,RGS1,PTH1R,LAPTM5,MOV10L1,PIFO,HDC,KIR2DL3,SPRR2A,LINC00861,GPR18,LINC01197,AKNAD1,COL4A1,CFAP74,PALM2,SLCO1C1,RP11-314C16.1,CD19,RP1-79C4.4,LINC01436,GCNT3,OLFML1,CD247,CPXM1,CTB-133G6.1,IL4,RP11-344P13.6,TUBA4B,LINC00891,CD34,KCNJ15,WNT2,MISP,LCK,COL3A1,RP11-367G6.3,CLSTN2,RP11-101E5.1,PKNOX2,RP11-108M9.4,KCNJ8,KIRREL,KIR3DL3,SLPI,DEFB4A,FER1L6,SPRR1B,ZNF20,LMO7,FAM92B,RPS6KA2,LRRC43,AC195454.1,HRCT1,APELA,C1QTNF4,ARHGEF38,PABPC5,TTC29,ANGPT1,EFCAB6,ASPG,CD248,MRVI1,ADGRL4,VWA3A,TNFRSF17,AEBP1,CCL5,U47924.27,TRAV30,NR0B2,NBAT1,UNC5C,RP11-347J14.7,SSTR3,EBF3,IGLV4-60,TNFRSF13B,FKBP1A,CASC1,PLPP4,FOXC2,PRPH2,KRT72,ATP10B,TM4SF5,HHATL,VPREB3,IGHD,UCHL1,RP11-493L12.7,CD93,APOBEC3H,PCOLCE,CEACAM6,GRIN3B,COL14A1,BLK,CATSPERD,CD3E,KANK4,LY9,FAM170B,TMPRSS4,ATP1A2,DOK2,IGSF9,GCSAM,AGR3,ACKR1,FAM162B,AC109642.1,FOXA2,AKAP14,PEG10,MEG8,REM1,SPINK5,ADGRF5,KLK10,IGFL3,GML,SCGN,EDIL3,COL6A1,TRAV1-1,TSPAN19,IGLV9-49,S100A14,GTSCR1,TEKT3,MFAP4,RUNX1T1,B3GALT5,SPARCL1,PCP4,JAKMIP1,KCNJ16,CTB-41I6.1,TRBV28,HNF4A,PPP1R14A,RIBC1,PSCA,B3GNT6,PRKG1,MEG3,SOWAHA,SPAG6,RP3-446N13.5,PODN,FCMR,RERGL,UNC5A,EPN3,RP11-144A16.8,PIH1D2,GRAP2,ATP8A2,EPPIN,FAM101A,C1QTNF2,PRRX2,TM4SF20,GIPC3,AGMO,RHOBTB2,C9ORF24,SULT1A2,MALL,STOML3,RGS22,TTC25,SLAMF1,MS4A2,CAPN9,PID1,NREP,GPC3,CNTN4,SLC38A4,RGPD4,ECM2,LRRC73,AOC1,ATP6V1C2,SUGCT,SLC9C2,FBLN2,CD5,THY1,CAMK4,CYP2B6,ROPN1B,TRAV16,RP11-275I4.2,CDK2AP1,SPOCK2,SMIM22,OPRM1,FAM26E,ONECUT3,CD53,ASPA,TRGV8,ADAMTS3,CD96,LINC00158,TESPA1,GFI1,IL12RB2,NLRC3,SDCBP2,SLC6A14,COX7A1,TRAV19,S100P,LHFP,SRD5A2,RP11-693J15.5,TRBV27,KIF26B,TRAV5,MAMDC2,RP11-973H7.4,TMEM54,CCDC80,ARX,SLC15A1,LIM2,C20ORF85,KLRC4,JPH2,CCR6,LINC01615,SEMA3B,SPATA18,INMT,TBX2,LINC00544,MYL3,RUNDC3B,VEGFD,NKX6-1,PI3,C5,CCL21,LINC00384,GPR4,UCN3,COL6A3,COL10A1,RP11-973H7.1,SEMA3F,PPP1R1B,PIGR,RP11-879F14.2,EDNRA,STX19,ROPN1L,MDK,CLDN4,SMOC2,SEMA3D,MKX,CLDN8,CYP2C18,MUC13,FOXJ1,CDHR4,DNAH5,NOTCH3,KLRB1,TRAV12-1,GPRIN2,RIMBP2,HMGCS2,RASGRP1,LRRC17,C1ORF194,FSTL1,ELN,CORO1A,LRRC46,ASPN,RP11-175K6.1,CD24,VTCN1,PDE1C,C1ORF141,LGI4,ADH1B,NKX3-2,TCF21,KCNT2,CST2,AC006273.5,C2ORF70,FIBCD1,RP11-493L12.5,SYTL3,DES,KLRK1,DLC1,CROCC2,DMBT1,ANO2,PFN2,CD2,TCEAL7,SFRP2,RSPH10B,ANO1,GRIP2,PGLYRP2,LTBP2,LINC01559,HSF5,FMO3,ERBB3,SGCD,PIEZO2,ARHGAP39,KIR2DL1,RP11-89K21.1,GAL3ST1,TRAV8-4,COMP,FCRL2,ITGA8,PROK2,FAM83E,TMEM190,MTUS1,TRBV2,SOX18,BGN,MUC5B,CCDC129,FAM198B,TKTL1,RAMP2,GAS2L2,ADAMTS5,EFCAB1,ERN2,TMEM47,TBX21,SUSD5,KLRG1,CSMD1,CSDC2,RP11-445L6.3,SLIT2,P2RY10,PCDHB7,TRGV9,KITLG,PLAC9,KCNRG,PROX2,FASLG,KLK8,MUC3A,TRDC,CXCR5,CST4,RP11-10A14.5,S1PR4,TAGAP,C2ORF73,GUCA2B,GALNT16,IFI27,FBN1,RAD51AP2,SYNPO2,CCDC148,DYNLRB2,MST1R,MUC4,PGR,CTD-2008P7.9,MEF2C,ZBED9,DAW1,ST8SIA2,CAPSL,SPEF1,RP11-753D20.3,CALD1,MUC1,CFAP52,DIO3,FGF14,FOXS1,CD3G,CHST4,CD226,WFDC10B,ARHGAP9,ERICH5,CILP2,WFDC2,TEPP,IL18RAP,PTK6,TRGC2,HOXB5,UBASH3A,AGR2,AC092484.1,APLNR,MSRB3,ENTPD8,MRLN,MOXD1,FOXF1,ANGPTL1,HS3ST3A1,SULT1A1,CDH17,RP11-290F5.1,HSPA12B,CXCL17,TYRP1,MROH9,CEACAM5,ADGB,RCN3,ZBBX,VWF,MYH14,FILIP1,KIAA1755,RAB17,GHR,DCN,FBLN1,CHST6,ANKRD2,SFTPA2,LRRIQ1,IQUB,TRAV17,PTN,DNER,TMC4,RP5-887A10.1,C11ORF88,ANGPTL2,ADAMTS16,CLIC6,IL2RB,SLAMF6,RP3-431P23.5,ITLN2,RP11-54A9.1,RP11-125O18.1,PLN,SALL1,WDR78,REG4,ZAP70,COX4I2,FGL2,CFAP58,WISP1,NXN,SPINK8,DRC7,ADAMTS4,SELENBP1,MSMB,ELFN1,GJA1,SRPX,SYT13,RBPMS,CCDC78,DNAAF3,MS4A1,CD8A,HSD17B6,LRRC71,C4BPB,RGL4,FCRLA,IL26,POU2F3,PCK1,SGIP1,BCHE,PALM3,RIIAD1,IL1R1,PRELP,ARMC3,MYRF,BMP3,GSTA3,PRAP1,ROBO2,AMN,ENKUR,DNAH12,TMEM212,RP11-486M23.1,TFF1,TRGV2,MYOC,CFAP53,GJA4,SEZ6L2,SHISA2,PACRG,GRHL2,PDZRN3,GZMH,CAPS,TRAC,AP000344.3,ANTXR1,TMEM119,HSPB6,SH2D1A,WDR72,GGT6,PI15,CFAP157,TACC2,LGALS1,MYLK,DOCK1,IGLV5-48,ELF5,C22ORF15,CYP4F11,AK8,LRRC18,LMO2,COL12A1,ITGA11,EGFL6,RGS11,PCDHB15</t>
   </si>
   <si>
-    <t>PMID: 35637521</t>
-  </si>
-  <si>
     <t>Identifying tumor cells</t>
+  </si>
+  <si>
+    <t>Blast cells</t>
+  </si>
+  <si>
+    <t>CD33,CD34,CD38,PROM1,ENG,CD99,KIT</t>
+  </si>
+  <si>
+    <t>PMID:39362905</t>
   </si>
 </sst>
 </file>
@@ -1074,22 +1080,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.21875" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="70.1796875" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>193</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>185</v>
       </c>
@@ -1131,7 +1137,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>133</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>215</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>206</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>211</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -2319,13 +2325,13 @@
         <v>224</v>
       </c>
       <c r="D95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" t="s">
         <v>225</v>
       </c>
-      <c r="E95" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -2333,9 +2339,23 @@
         <v>223</v>
       </c>
       <c r="D96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
         <v>225</v>
       </c>
-      <c r="E96" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" t="s">
         <v>226</v>
       </c>
     </row>

--- a/resources/CellScores/cellscores.xlsx
+++ b/resources/CellScores/cellscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\CellScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\CellScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C2684-6651-418F-A4DE-9A01555FF0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B75CB8-C33B-4E57-8CEA-A41C9A04523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25703" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="244">
   <si>
     <t>ScoreType</t>
   </si>
@@ -712,6 +712,51 @@
   </si>
   <si>
     <t>PMID:39362905</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>CTLA4, PDCD1, LAG3, HAVCR2, TIGIT, ENTPD1</t>
+  </si>
+  <si>
+    <t>PRF1, GZMB, GZMA, GZMH, NKG7, GNLY</t>
+  </si>
+  <si>
+    <t>Cytotoxicity</t>
+  </si>
+  <si>
+    <t>TCR signaling</t>
+  </si>
+  <si>
+    <t>Stemness</t>
+  </si>
+  <si>
+    <t>TRM signature</t>
+  </si>
+  <si>
+    <t>LAT, LCK, FYN, NFATC2, NFATC1, NFATC4, NFATC3, PLEK, PAG1, PTPN11, PTPN2, PTPN22, PTPN4, PTPN6, PTPN7, PTPRC, PTPRCAP, S100A10, S100A11, S100A13, S100A4, S100A6, ZAP70, CALM1, CALM2, CALM3, CAST, CD247, CD3D, CD3E, CD3G, CSK, DOK1, DOK2, DUSP1, DUSP2, DUSP4, DUSP5, DUSP10, LAT, PLCG1, PLCG2, PPP3CA, PPP3CC, FOS, FOSB, FOSL1, FOSL2, JUN, JUNB, JUND, NR4A1, NR4A2, NR4A3, BATF, IRF4, SH2D2A</t>
+  </si>
+  <si>
+    <t>TCF7, LTB, SELL, LEF1, LGALS3</t>
+  </si>
+  <si>
+    <t>CA10, ITGA1, ITGAE, IL2, IL10, CXCR6, CXCL13, KCNK5, RGS1, CRTAM, DUSP6, PDCD1, IL23R, ZNF683</t>
+  </si>
+  <si>
+    <t>MANAscore </t>
+  </si>
+  <si>
+    <t>10.1038/s41467-024-55059-3</t>
+  </si>
+  <si>
+    <t>CXCL13, CD39</t>
+  </si>
+  <si>
+    <t>IL7R</t>
+  </si>
+  <si>
+    <t>MANAscore 2025</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2359,6 +2404,87 @@
         <v>226</v>
       </c>
     </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D99" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" t="s">
+        <v>240</v>
+      </c>
+      <c r="E102" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A87" xr:uid="{16A74B7B-773D-4D2D-A1EA-E16BA506650B}">

--- a/resources/CellScores/cellscores.xlsx
+++ b/resources/CellScores/cellscores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\CellScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B75CB8-C33B-4E57-8CEA-A41C9A04523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A5894A-51C6-4EC4-9429-8A68AF59B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25703" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="262">
   <si>
     <t>ScoreType</t>
   </si>
@@ -747,16 +747,70 @@
     <t>MANAscore </t>
   </si>
   <si>
-    <t>10.1038/s41467-024-55059-3</t>
-  </si>
-  <si>
     <t>CXCL13, CD39</t>
   </si>
   <si>
     <t>IL7R</t>
   </si>
   <si>
-    <t>MANAscore 2025</t>
+    <t>SHH, PTCH1, PTCH2, SMO, GLI1, GLI2, GLI3, SUFU, HHIP</t>
+  </si>
+  <si>
+    <t>WNT1, WNT2, WNT3A, WNT5A, WNT7B, FZD1, FZD2, FZD3, FZD4, FZD5, FZD6, FZD7, FZD8, FZD9, FZD10, LRP5, LRP6, CTNNB1, GSK3B, APC, AXIN1, AXIN2, DKK1, SFRP1, SFRP2</t>
+  </si>
+  <si>
+    <t>ALDH1A1, ALDH1A2, ALDH1A3, RDH10, RBP4, RARA, RARB, RARG, CYP26A1, CYP26B1, CYP26C1</t>
+  </si>
+  <si>
+    <t>FGF1, FGF2, FGF7, FGF9, FGF10, FGF18, FGFR1, FGFR2, FGFR3, FGFR4, MAPK1, MAPK3, AKT1, STAT3</t>
+  </si>
+  <si>
+    <t>PDGFA, PDGFB, PDGFC, PDGFD, PDGFRA, PDGFRB, PIK3CA, AKT1, MAPK1, MAPK3</t>
+  </si>
+  <si>
+    <t>VEGFA, VEGFB, VEGFC, VEGFD, PGF, FLT1, KDR, FLT4, PIK3CA, AKT1, MAPK1, MAPK3</t>
+  </si>
+  <si>
+    <t>MST1, MST2, LATS1, LATS2, SAV1, MOB1A, MOB1B, YAP1, WWTR1, TEAD1, TEAD2, TEAD3, TEAD4</t>
+  </si>
+  <si>
+    <t>BMP2, BMP4, BMP5, BMP7, TGFB1, TGFB2, TGFB3, BMPR1A, BMPR1B, BMPR2, TGFBR1, TGFBR2, SMAD1, SMAD2, SMAD3, SMAD4, SMAD5, SMAD7</t>
+  </si>
+  <si>
+    <t>Mooney Selection</t>
+  </si>
+  <si>
+    <t>PMID:39900903</t>
+  </si>
+  <si>
+    <t>Tumor-Infiltrating Lymphocytes (TIL)</t>
+  </si>
+  <si>
+    <t>(Lung) Shh Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) Wnt Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) Retinoic Acid Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) Fgf Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) Pdgf Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) Vegf Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) Hippo Pathway</t>
+  </si>
+  <si>
+    <t>(Lung) BMP/TGFß Pathway</t>
+  </si>
+  <si>
+    <t>MANAscore 2025</t>
   </si>
 </sst>
 </file>
@@ -1125,22 +1179,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A97" sqref="A1:E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.1796875" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1211,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>193</v>
       </c>
@@ -1169,7 +1223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>185</v>
       </c>
@@ -1182,7 +1236,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>126</v>
       </c>
@@ -1194,7 +1248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>133</v>
       </c>
@@ -1206,7 +1260,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1220,7 +1274,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1231,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -1242,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1253,7 +1307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1264,7 +1318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1275,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1286,7 +1340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1297,7 +1351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1308,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1319,7 +1373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1330,7 +1384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1341,7 +1395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -1352,7 +1406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -1363,7 +1417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1374,7 +1428,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1385,7 +1439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -1396,7 +1450,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1407,7 +1461,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1418,7 +1472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1483,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1511,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1471,7 +1525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1482,7 +1536,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -1493,7 +1547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1504,7 +1558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1515,7 +1569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1526,7 +1580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1548,7 +1602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -1562,7 +1616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1573,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1595,7 +1649,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1606,7 +1660,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1620,7 +1674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1634,7 +1688,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1648,7 +1702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1676,7 +1730,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1690,7 +1744,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1704,7 +1758,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1718,7 +1772,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -1746,7 +1800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -1760,7 +1814,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -1774,7 +1828,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1788,7 +1842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -1802,7 +1856,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1816,7 +1870,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -1830,7 +1884,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1844,7 +1898,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -1858,7 +1912,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -1872,7 +1926,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -1886,7 +1940,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -1900,7 +1954,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -1914,7 +1968,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -1928,7 +1982,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -1942,7 +1996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -1956,7 +2010,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -1970,7 +2024,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -1984,7 +2038,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -1998,7 +2052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -2012,7 +2066,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -2026,7 +2080,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -2040,7 +2094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -2054,7 +2108,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -2068,7 +2122,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -2082,7 +2136,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -2096,7 +2150,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -2110,7 +2164,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -2124,7 +2178,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -2138,7 +2192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -2152,7 +2206,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>215</v>
       </c>
@@ -2166,7 +2220,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -2180,7 +2234,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -2194,7 +2248,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -2208,7 +2262,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -2222,7 +2276,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -2236,7 +2290,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>206</v>
       </c>
@@ -2250,7 +2304,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -2264,7 +2318,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -2278,7 +2332,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -2292,7 +2346,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>210</v>
       </c>
@@ -2306,7 +2360,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>211</v>
       </c>
@@ -2320,7 +2374,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -2334,7 +2388,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -2348,7 +2402,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -2362,7 +2416,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -2376,7 +2430,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -2390,7 +2444,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>226</v>
       </c>
@@ -2404,7 +2458,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>229</v>
       </c>
@@ -2412,13 +2466,13 @@
         <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -2426,13 +2480,13 @@
         <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>233</v>
       </c>
@@ -2440,13 +2494,13 @@
         <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -2454,13 +2508,13 @@
         <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -2468,21 +2522,115 @@
         <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>239</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>242</v>
+      </c>
+      <c r="E104" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>258</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>259</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E110" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
